--- a/Hardware/stm32-pi_full/stm32 v1.0 working BoM/JLCSMT_Sample_CPL1.xlsx
+++ b/Hardware/stm32-pi_full/stm32 v1.0 working BoM/JLCSMT_Sample_CPL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d4/Documents/github/emonSTM32-db/Hardware/stm32-pi_full/stm32 v1.0 working BoM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29204F7D-CCFB-AE4C-B363-E3A5F8B47FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F6DCE-D4A4-9B4B-BEB5-62D9F25C33DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
   <si>
     <t>Designator</t>
   </si>
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t>R56</t>
-  </si>
-  <si>
-    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -520,13 +517,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -904,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -975,10 +972,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>97.54</v>
+        <v>97.27</v>
       </c>
       <c r="C4" s="3">
-        <v>62.52</v>
+        <v>62.44</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -1349,10 +1346,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>95.37</v>
+        <v>94.53</v>
       </c>
       <c r="C26" s="3">
-        <v>61.67</v>
+        <v>62.51</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
@@ -2174,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2191,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2208,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2225,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2242,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2259,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="E79" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2276,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="E80" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2293,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="E81" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2310,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2327,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="E83" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2344,7 +2341,7 @@
         <v>6</v>
       </c>
       <c r="E84" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3518,23 +3515,6 @@
       </c>
       <c r="E153" s="3">
         <v>270</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B154" s="3">
-        <v>129.4</v>
-      </c>
-      <c r="C154" s="3">
-        <v>33.5</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E154" s="3">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/stm32-pi_full/stm32 v1.0 working BoM/JLCSMT_Sample_CPL1.xlsx
+++ b/Hardware/stm32-pi_full/stm32 v1.0 working BoM/JLCSMT_Sample_CPL1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d4/Documents/github/emonSTM32-db/Hardware/stm32-pi_full/stm32 v1.0 working BoM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F6DCE-D4A4-9B4B-BEB5-62D9F25C33DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D795BF-1218-EB45-9357-3D18C2866D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="187">
   <si>
     <t>Designator</t>
   </si>
@@ -499,6 +499,93 @@
   </si>
   <si>
     <t>R56</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>C55</t>
   </si>
 </sst>
 </file>
@@ -901,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1649,47 +1736,47 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="B44" s="3">
-        <v>60.31</v>
+        <v>81.36</v>
       </c>
       <c r="C44" s="3">
-        <v>66.53</v>
+        <v>38.56</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="B45" s="3">
-        <v>81.93</v>
+        <v>83.55</v>
       </c>
       <c r="C45" s="3">
-        <v>42.29</v>
+        <v>38.56</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
-        <v>71.849999999999994</v>
+        <v>60.31</v>
       </c>
       <c r="C46" s="3">
-        <v>66.17</v>
+        <v>66.53</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1700,30 +1787,30 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3">
-        <v>75.02</v>
+        <v>81.93</v>
       </c>
       <c r="C47" s="3">
-        <v>40.270000000000003</v>
+        <v>42.29</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>85.8</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="C48" s="3">
-        <v>72.95</v>
+        <v>66.17</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1734,13 +1821,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>80.83</v>
+        <v>75.02</v>
       </c>
       <c r="C49" s="3">
-        <v>72.95</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1751,10 +1838,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3">
-        <v>75.86</v>
+        <v>85.8</v>
       </c>
       <c r="C50" s="3">
         <v>72.95</v>
@@ -1768,10 +1855,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>70.88</v>
+        <v>80.83</v>
       </c>
       <c r="C51" s="3">
         <v>72.95</v>
@@ -1785,10 +1872,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>65.91</v>
+        <v>75.86</v>
       </c>
       <c r="C52" s="3">
         <v>72.95</v>
@@ -1802,10 +1889,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>60.94</v>
+        <v>70.88</v>
       </c>
       <c r="C53" s="3">
         <v>72.95</v>
@@ -1819,10 +1906,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>55.96</v>
+        <v>65.91</v>
       </c>
       <c r="C54" s="3">
         <v>72.95</v>
@@ -1836,10 +1923,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>50.99</v>
+        <v>60.94</v>
       </c>
       <c r="C55" s="3">
         <v>72.95</v>
@@ -1853,10 +1940,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3">
-        <v>46.02</v>
+        <v>55.96</v>
       </c>
       <c r="C56" s="3">
         <v>72.95</v>
@@ -1870,47 +1957,47 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>108.97</v>
+        <v>50.99</v>
       </c>
       <c r="C57" s="3">
-        <v>71.97</v>
+        <v>72.95</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3">
-        <v>106.43</v>
+        <v>46.02</v>
       </c>
       <c r="C58" s="3">
-        <v>74.48</v>
+        <v>72.95</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3">
-        <v>104</v>
+        <v>108.97</v>
       </c>
       <c r="C59" s="3">
-        <v>77.45</v>
+        <v>71.97</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -1921,64 +2008,64 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3">
-        <v>110.09</v>
+        <v>106.43</v>
       </c>
       <c r="C60" s="3">
-        <v>59.59</v>
+        <v>74.48</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3">
-        <v>111.3</v>
+        <v>104</v>
       </c>
       <c r="C61" s="3">
-        <v>54.56</v>
+        <v>77.45</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
-        <v>38.68</v>
+        <v>110.09</v>
       </c>
       <c r="C62" s="3">
-        <v>77.08</v>
+        <v>59.59</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B63" s="3">
-        <v>39.21</v>
+        <v>111.3</v>
       </c>
       <c r="C63" s="3">
-        <v>74.849999999999994</v>
+        <v>54.56</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
@@ -1989,98 +2076,98 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="B64" s="3">
-        <v>111.28</v>
+        <v>74.84</v>
       </c>
       <c r="C64" s="3">
-        <v>56.96</v>
+        <v>83.31</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B65" s="3">
-        <v>121.31</v>
+        <v>87.57</v>
       </c>
       <c r="C65" s="3">
-        <v>26.16</v>
+        <v>83.31</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B66" s="3">
-        <v>121.46</v>
+        <v>100.29</v>
       </c>
       <c r="C66" s="3">
-        <v>20.68</v>
+        <v>83.31</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B67" s="3">
-        <v>114.97</v>
+        <v>113.01</v>
       </c>
       <c r="C67" s="3">
-        <v>22.62</v>
+        <v>83.31</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B68" s="3">
-        <v>114.97</v>
+        <v>90.13</v>
       </c>
       <c r="C68" s="3">
-        <v>20.98</v>
+        <v>42.36</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B69" s="3">
-        <v>120.1</v>
+        <v>11.23</v>
       </c>
       <c r="C69" s="3">
-        <v>15.87</v>
+        <v>87.69</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -2091,30 +2178,30 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B70" s="3">
-        <v>101.2</v>
+        <v>23.96</v>
       </c>
       <c r="C70" s="3">
-        <v>64.19</v>
+        <v>87.69</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B71" s="3">
-        <v>114.97</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="C71" s="3">
-        <v>19.34</v>
+        <v>65.08</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
@@ -2125,13 +2212,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B72" s="3">
-        <v>118.29</v>
+        <v>8.69</v>
       </c>
       <c r="C72" s="3">
-        <v>46.78</v>
+        <v>60.5</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
@@ -2142,30 +2229,30 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="B73" s="3">
-        <v>118.32</v>
+        <v>36.69</v>
       </c>
       <c r="C73" s="3">
-        <v>37.700000000000003</v>
+        <v>87.69</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3">
-        <v>84.91</v>
+        <v>38.68</v>
       </c>
       <c r="C74" s="3">
-        <v>42.34</v>
+        <v>77.08</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -2176,98 +2263,98 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B75" s="3">
-        <v>1.98</v>
+        <v>62.14</v>
       </c>
       <c r="C75" s="3">
-        <v>89.08</v>
+        <v>87.69</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="B76" s="3">
-        <v>1.98</v>
+        <v>8.69</v>
       </c>
       <c r="C76" s="3">
-        <v>85.38</v>
+        <v>55.84</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B77" s="3">
-        <v>1.98</v>
+        <v>49.41</v>
       </c>
       <c r="C77" s="3">
-        <v>81.680000000000007</v>
+        <v>87.69</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B78" s="3">
-        <v>124.88</v>
+        <v>74.87</v>
       </c>
       <c r="C78" s="3">
-        <v>38.69</v>
+        <v>87.69</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B79" s="3">
-        <v>119.92</v>
+        <v>89.18</v>
       </c>
       <c r="C79" s="3">
-        <v>73.790000000000006</v>
+        <v>10.25</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B80" s="3">
-        <v>113.54</v>
+        <v>87.59</v>
       </c>
       <c r="C80" s="3">
-        <v>34.06</v>
+        <v>87.69</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>6</v>
@@ -2278,13 +2365,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B81" s="3">
-        <v>113.54</v>
+        <v>100.32</v>
       </c>
       <c r="C81" s="3">
-        <v>43.82</v>
+        <v>87.69</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>6</v>
@@ -2295,30 +2382,30 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B82" s="3">
-        <v>84</v>
+        <v>113.05</v>
       </c>
       <c r="C82" s="3">
-        <v>25.7</v>
+        <v>87.69</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B83" s="3">
-        <v>87.44</v>
+        <v>39.21</v>
       </c>
       <c r="C83" s="3">
-        <v>29.55</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -2329,13 +2416,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B84" s="3">
-        <v>84</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="C84" s="3">
-        <v>21.3</v>
+        <v>58.27</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
@@ -2346,98 +2433,98 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="B85" s="3">
-        <v>19.75</v>
+        <v>7.32</v>
       </c>
       <c r="C85" s="3">
-        <v>41.85</v>
+        <v>54.85</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="B86" s="3">
-        <v>123.86</v>
+        <v>7.28</v>
       </c>
       <c r="C86" s="3">
-        <v>36.18</v>
+        <v>52.28</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E86" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B87" s="3">
-        <v>86.9</v>
+        <v>111.28</v>
       </c>
       <c r="C87" s="3">
-        <v>16.100000000000001</v>
+        <v>56.96</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E87" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="B88" s="3">
-        <v>23.46</v>
+        <v>121.03</v>
       </c>
       <c r="C88" s="3">
-        <v>32.479999999999997</v>
+        <v>23.48</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="B89" s="3">
-        <v>13.44</v>
+        <v>11.23</v>
       </c>
       <c r="C89" s="3">
-        <v>56.95</v>
+        <v>83.31</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E89" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="B90" s="3">
-        <v>91</v>
+        <v>23.66</v>
       </c>
       <c r="C90" s="3">
-        <v>21.4</v>
+        <v>84.18</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
@@ -2448,64 +2535,64 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="B91" s="3">
-        <v>87.8</v>
+        <v>36.67</v>
       </c>
       <c r="C91" s="3">
-        <v>18.899999999999999</v>
+        <v>83.31</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E91" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="B92" s="3">
-        <v>91.4</v>
+        <v>49.4</v>
       </c>
       <c r="C92" s="3">
-        <v>29.1</v>
+        <v>83.31</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E92" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="B93" s="3">
-        <v>83.58</v>
+        <v>62.12</v>
       </c>
       <c r="C93" s="3">
-        <v>15.68</v>
+        <v>83.31</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E93" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B94" s="3">
-        <v>78.5</v>
+        <v>121.31</v>
       </c>
       <c r="C94" s="3">
-        <v>29.3</v>
+        <v>26.16</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
@@ -2516,13 +2603,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B95" s="3">
-        <v>78.459999999999994</v>
+        <v>121.46</v>
       </c>
       <c r="C95" s="3">
-        <v>31.48</v>
+        <v>20.68</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -2533,132 +2620,132 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B96" s="3">
-        <v>69.73</v>
+        <v>114.97</v>
       </c>
       <c r="C96" s="3">
-        <v>38.04</v>
+        <v>22.62</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="B97" s="3">
-        <v>15.9</v>
+        <v>114.97</v>
       </c>
       <c r="C97" s="3">
-        <v>56.91</v>
+        <v>20.98</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E97" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B98" s="3">
-        <v>76.88</v>
+        <v>120.1</v>
       </c>
       <c r="C98" s="3">
-        <v>56.96</v>
+        <v>15.87</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B99" s="3">
-        <v>77.36</v>
+        <v>101.2</v>
       </c>
       <c r="C99" s="3">
-        <v>61.68</v>
+        <v>64.19</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B100" s="3">
-        <v>46.54</v>
+        <v>114.97</v>
       </c>
       <c r="C100" s="3">
-        <v>64.22</v>
+        <v>19.34</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B101" s="3">
-        <v>23.45</v>
+        <v>118.29</v>
       </c>
       <c r="C101" s="3">
-        <v>29.95</v>
+        <v>46.78</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B102" s="3">
-        <v>112.07</v>
+        <v>118.32</v>
       </c>
       <c r="C102" s="3">
-        <v>73.13</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E102" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B103" s="3">
-        <v>110.64</v>
+        <v>84.91</v>
       </c>
       <c r="C103" s="3">
-        <v>75.59</v>
+        <v>42.34</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>6</v>
@@ -2669,268 +2756,268 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B104" s="3">
-        <v>109.79</v>
+        <v>1.98</v>
       </c>
       <c r="C104" s="3">
-        <v>77.94</v>
+        <v>89.08</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E104" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="B105" s="3">
-        <v>35.15</v>
+        <v>1.98</v>
       </c>
       <c r="C105" s="3">
-        <v>55.43</v>
+        <v>85.38</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B106" s="3">
-        <v>109.14</v>
+        <v>1.98</v>
       </c>
       <c r="C106" s="3">
-        <v>56.6</v>
+        <v>81.680000000000007</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B107" s="3">
-        <v>5.38</v>
+        <v>124.88</v>
       </c>
       <c r="C107" s="3">
-        <v>89.08</v>
+        <v>38.69</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B108" s="3">
-        <v>66.34</v>
+        <v>119.92</v>
       </c>
       <c r="C108" s="3">
-        <v>38.61</v>
+        <v>73.790000000000006</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B109" s="3">
-        <v>98.83</v>
+        <v>113.54</v>
       </c>
       <c r="C109" s="3">
-        <v>28.69</v>
+        <v>34.06</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E109" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B110" s="3">
-        <v>98.9</v>
+        <v>113.54</v>
       </c>
       <c r="C110" s="3">
-        <v>30.94</v>
+        <v>43.82</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E110" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="B111" s="3">
-        <v>72.37</v>
+        <v>84</v>
       </c>
       <c r="C111" s="3">
-        <v>39.340000000000003</v>
+        <v>25.7</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E111" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="B112" s="3">
-        <v>48.91</v>
+        <v>87.44</v>
       </c>
       <c r="C112" s="3">
-        <v>64.19</v>
+        <v>29.55</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B113" s="3">
-        <v>119.82</v>
+        <v>84</v>
       </c>
       <c r="C113" s="3">
-        <v>63.59</v>
+        <v>21.3</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E113" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B114" s="3">
-        <v>5.33</v>
+        <v>19.75</v>
       </c>
       <c r="C114" s="3">
-        <v>85.38</v>
+        <v>41.85</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E114" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="B115" s="3">
-        <v>119.81</v>
+        <v>123.86</v>
       </c>
       <c r="C115" s="3">
-        <v>65.7</v>
+        <v>36.18</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E115" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="B116" s="3">
-        <v>119.79</v>
+        <v>86.9</v>
       </c>
       <c r="C116" s="3">
-        <v>67.81</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E116" s="3">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="B117" s="3">
-        <v>121.73</v>
+        <v>23.46</v>
       </c>
       <c r="C117" s="3">
-        <v>90.65</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E117" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B118" s="3">
-        <v>113.82</v>
+        <v>13.44</v>
       </c>
       <c r="C118" s="3">
-        <v>52.78</v>
+        <v>56.95</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E118" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B119" s="3">
-        <v>109.12</v>
+        <v>91</v>
       </c>
       <c r="C119" s="3">
-        <v>90.77</v>
+        <v>21.4</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>6</v>
@@ -2941,183 +3028,183 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="B120" s="3">
-        <v>96.45</v>
+        <v>87.8</v>
       </c>
       <c r="C120" s="3">
-        <v>90.71</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E120" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B121" s="3">
-        <v>58.22</v>
+        <v>91.4</v>
       </c>
       <c r="C121" s="3">
-        <v>90.38</v>
+        <v>29.1</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E121" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="B122" s="3">
-        <v>71.040000000000006</v>
+        <v>83.58</v>
       </c>
       <c r="C122" s="3">
-        <v>90.38</v>
+        <v>15.68</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E122" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B123" s="3">
-        <v>83.72</v>
+        <v>78.5</v>
       </c>
       <c r="C123" s="3">
-        <v>90.58</v>
+        <v>29.3</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E123" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="B124" s="3">
-        <v>45.43</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="C124" s="3">
-        <v>90.47</v>
+        <v>31.48</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E124" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B125" s="3">
-        <v>5.37</v>
+        <v>69.73</v>
       </c>
       <c r="C125" s="3">
-        <v>81.709999999999994</v>
+        <v>38.04</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E125" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="B126" s="3">
-        <v>32.979999999999997</v>
+        <v>15.9</v>
       </c>
       <c r="C126" s="3">
-        <v>90.53</v>
+        <v>56.91</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E126" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="B127" s="3">
-        <v>20.3</v>
+        <v>76.88</v>
       </c>
       <c r="C127" s="3">
-        <v>90.61</v>
+        <v>56.96</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E127" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B128" s="3">
-        <v>113.82</v>
+        <v>77.36</v>
       </c>
       <c r="C128" s="3">
-        <v>56.66</v>
+        <v>61.68</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E128" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="B129" s="3">
-        <v>47.63</v>
+        <v>46.54</v>
       </c>
       <c r="C129" s="3">
-        <v>61.55</v>
+        <v>64.22</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E129" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B130" s="3">
-        <v>47.98</v>
+        <v>23.45</v>
       </c>
       <c r="C130" s="3">
-        <v>57.35</v>
+        <v>29.95</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>6</v>
@@ -3128,30 +3215,30 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="B131" s="3">
-        <v>50.52</v>
+        <v>112.07</v>
       </c>
       <c r="C131" s="3">
-        <v>58.27</v>
+        <v>73.13</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E131" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B132" s="3">
-        <v>55.14</v>
+        <v>110.64</v>
       </c>
       <c r="C132" s="3">
-        <v>64.510000000000005</v>
+        <v>75.59</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>6</v>
@@ -3162,30 +3249,30 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B133" s="3">
-        <v>19.829999999999998</v>
+        <v>109.79</v>
       </c>
       <c r="C133" s="3">
-        <v>23.65</v>
+        <v>77.94</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E133" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B134" s="3">
-        <v>79.16</v>
+        <v>35.15</v>
       </c>
       <c r="C134" s="3">
-        <v>42.23</v>
+        <v>55.43</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>6</v>
@@ -3196,30 +3283,30 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B135" s="3">
-        <v>89.3</v>
+        <v>109.14</v>
       </c>
       <c r="C135" s="3">
-        <v>16.100000000000001</v>
+        <v>56.6</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E135" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B136" s="3">
-        <v>116.59</v>
+        <v>5.38</v>
       </c>
       <c r="C136" s="3">
-        <v>84.27</v>
+        <v>89.08</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>6</v>
@@ -3230,98 +3317,98 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B137" s="3">
-        <v>103.8</v>
+        <v>66.34</v>
       </c>
       <c r="C137" s="3">
-        <v>84.27</v>
+        <v>38.61</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E137" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B138" s="3">
-        <v>91.3</v>
+        <v>98.83</v>
       </c>
       <c r="C138" s="3">
-        <v>84.27</v>
+        <v>28.69</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E138" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B139" s="3">
-        <v>78.400000000000006</v>
+        <v>98.9</v>
       </c>
       <c r="C139" s="3">
-        <v>84.27</v>
+        <v>30.94</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E139" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B140" s="3">
-        <v>65.760000000000005</v>
+        <v>72.37</v>
       </c>
       <c r="C140" s="3">
-        <v>84.27</v>
+        <v>39.340000000000003</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E140" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B141" s="3">
-        <v>53.09</v>
+        <v>48.91</v>
       </c>
       <c r="C141" s="3">
-        <v>84.27</v>
+        <v>64.19</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E141" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B142" s="3">
-        <v>40.32</v>
+        <v>119.82</v>
       </c>
       <c r="C142" s="3">
-        <v>84.27</v>
+        <v>63.59</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>6</v>
@@ -3332,13 +3419,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B143" s="3">
-        <v>27.68</v>
+        <v>5.33</v>
       </c>
       <c r="C143" s="3">
-        <v>84.27</v>
+        <v>85.38</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>6</v>
@@ -3349,13 +3436,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B144" s="3">
-        <v>15.02</v>
+        <v>119.81</v>
       </c>
       <c r="C144" s="3">
-        <v>84.27</v>
+        <v>65.7</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>6</v>
@@ -3366,30 +3453,30 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B145" s="3">
-        <v>86.73</v>
+        <v>119.79</v>
       </c>
       <c r="C145" s="3">
-        <v>76.040000000000006</v>
+        <v>67.81</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E145" s="3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B146" s="3">
-        <v>81.760000000000005</v>
+        <v>121.73</v>
       </c>
       <c r="C146" s="3">
-        <v>76.040000000000006</v>
+        <v>90.65</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>6</v>
@@ -3400,13 +3487,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B147" s="3">
-        <v>76.790000000000006</v>
+        <v>113.82</v>
       </c>
       <c r="C147" s="3">
-        <v>76.040000000000006</v>
+        <v>52.78</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>6</v>
@@ -3417,13 +3504,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B148" s="3">
-        <v>71.819999999999993</v>
+        <v>109.12</v>
       </c>
       <c r="C148" s="3">
-        <v>76.040000000000006</v>
+        <v>90.77</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>6</v>
@@ -3434,13 +3521,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B149" s="3">
-        <v>66.86</v>
+        <v>96.45</v>
       </c>
       <c r="C149" s="3">
-        <v>76.040000000000006</v>
+        <v>90.71</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>6</v>
@@ -3451,13 +3538,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3">
-        <v>61.89</v>
+        <v>58.22</v>
       </c>
       <c r="C150" s="3">
-        <v>76.040000000000006</v>
+        <v>90.38</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>6</v>
@@ -3468,13 +3555,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="3" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="B151" s="3">
-        <v>56.92</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="C151" s="3">
-        <v>76.040000000000006</v>
+        <v>90.38</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>6</v>
@@ -3485,13 +3572,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B152" s="3">
-        <v>51.95</v>
+        <v>83.72</v>
       </c>
       <c r="C152" s="3">
-        <v>76.040000000000006</v>
+        <v>90.58</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>6</v>
@@ -3502,18 +3589,511 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3">
+        <v>45.43</v>
+      </c>
+      <c r="C153" s="3">
+        <v>90.47</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B154" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="C154" s="3">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="C155" s="3">
+        <v>90.53</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="C156" s="3">
+        <v>90.61</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157" s="3">
+        <v>113.82</v>
+      </c>
+      <c r="C157" s="3">
+        <v>56.66</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="3">
+        <v>47.63</v>
+      </c>
+      <c r="C158" s="3">
+        <v>61.55</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="3">
+        <v>47.98</v>
+      </c>
+      <c r="C159" s="3">
+        <v>57.35</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160" s="3">
+        <v>50.52</v>
+      </c>
+      <c r="C160" s="3">
+        <v>58.27</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B161" s="3">
+        <v>55.14</v>
+      </c>
+      <c r="C161" s="3">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B162" s="3">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="C162" s="3">
+        <v>23.65</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="3">
+        <v>79.16</v>
+      </c>
+      <c r="C163" s="3">
+        <v>42.23</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B164" s="3">
+        <v>89.3</v>
+      </c>
+      <c r="C164" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B165" s="3">
+        <v>116.59</v>
+      </c>
+      <c r="C165" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B166" s="3">
+        <v>103.8</v>
+      </c>
+      <c r="C166" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B167" s="3">
+        <v>91.3</v>
+      </c>
+      <c r="C167" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B168" s="3">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C168" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B169" s="3">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="C169" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B170" s="3">
+        <v>53.09</v>
+      </c>
+      <c r="C170" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B171" s="3">
+        <v>40.32</v>
+      </c>
+      <c r="C171" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B172" s="3">
+        <v>27.68</v>
+      </c>
+      <c r="C172" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B173" s="3">
+        <v>15.02</v>
+      </c>
+      <c r="C173" s="3">
+        <v>84.27</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B174" s="3">
+        <v>86.73</v>
+      </c>
+      <c r="C174" s="3">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B175" s="3">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="C175" s="3">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" s="3">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="C176" s="3">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B177" s="3">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="C177" s="3">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B178" s="3">
+        <v>66.86</v>
+      </c>
+      <c r="C178" s="3">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B179" s="3">
+        <v>61.89</v>
+      </c>
+      <c r="C179" s="3">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B180" s="3">
+        <v>56.92</v>
+      </c>
+      <c r="C180" s="3">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B181" s="3">
+        <v>51.95</v>
+      </c>
+      <c r="C181" s="3">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B182" s="3">
         <v>46.98</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C182" s="3">
         <v>76.040000000000006</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E153" s="3">
+      <c r="D182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="3">
         <v>270</v>
       </c>
     </row>
